--- a/biology/Botanique/Daphné_strié/Daphné_strié.xlsx
+++ b/biology/Botanique/Daphné_strié/Daphné_strié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Daphn%C3%A9_stri%C3%A9</t>
+          <t>Daphné_strié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daphne striata
 Le daphné strié (Daphne striata) est un arbrisseau à feuilles persistantes de la famille des Thyméléacées. Il est très voisin du daphné camélée mais s'en distingue par une absence de pilosité et par des feuilles plus longues et plus étroites. Les fruits sont rouges à maturité.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Daphn%C3%A9_stri%C3%A9</t>
+          <t>Daphné_strié</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, elle figure sur la liste rouge et est protégée sur l'ensemble du territoire français métropolitain (Article 1).
 </t>
